--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -72,6 +72,120 @@
   </si>
   <si>
     <t xml:space="preserve">中秋节鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者植入思想钢印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppledescList2</t>
   </si>
 </sst>
 </file>
@@ -201,6 +315,177 @@
       </c>
       <c r="C8"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -74,115 +74,115 @@
     <t xml:space="preserve">中秋节鞋子</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList2</t>
+  </si>
+  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">草泥马</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始发饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始袜子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始下装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始鞋子</t>
+    <t xml:space="preserve">苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者植入思想钢印</t>
   </si>
   <si>
     <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">给我力量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨descList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨descList2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果desc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果descList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果descList2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果locationText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全力博</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全力上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">听者流泪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">听者植入思想钢印</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">AppledescList2</t>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -72,6 +72,120 @@
   </si>
   <si>
     <t xml:space="preserve">中秋节鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者植入思想钢印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppledescList2</t>
   </si>
 </sst>
 </file>
@@ -201,6 +315,177 @@
       </c>
       <c r="C8"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -304,7 +304,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -313,7 +315,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -322,7 +326,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -331,7 +337,9 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -340,7 +348,9 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -349,7 +359,9 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -358,7 +370,9 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -367,7 +381,9 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -376,7 +392,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -385,7 +403,9 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -394,7 +414,9 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -403,7 +425,9 @@
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -412,7 +436,9 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -421,7 +447,9 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -430,7 +458,9 @@
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -439,7 +469,9 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -448,7 +480,9 @@
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -457,7 +491,9 @@
       <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -466,7 +502,9 @@
       <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -475,7 +513,9 @@
       <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -484,7 +524,9 @@
       <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -72,6 +72,174 @@
   </si>
   <si>
     <t xml:space="preserve">中秋节鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">啊蒙之吟唱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裙子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者植入思想钢印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppledescList2</t>
   </si>
 </sst>
 </file>
@@ -205,6 +373,314 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -23,9 +23,15 @@
     <t xml:space="preserve">en</t>
   </si>
   <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">空字符串</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
     <t xml:space="preserve">Apple</t>
   </si>
   <si>
+    <t xml:space="preserve">备注1</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -44,6 +53,12 @@
     <t xml:space="preserve">Bnana</t>
   </si>
   <si>
+    <t xml:space="preserve">备注2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是非得失</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -53,6 +68,9 @@
     <t xml:space="preserve">peal</t>
   </si>
   <si>
+    <t xml:space="preserve">备注3</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -62,22 +80,37 @@
     <t xml:space="preserve">middle</t>
   </si>
   <si>
+    <t xml:space="preserve">备注4</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">中秋节礼包</t>
   </si>
   <si>
+    <t xml:space="preserve">备注5</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">中秋节鞋子</t>
   </si>
   <si>
+    <t xml:space="preserve">备注6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水电费</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">啊蒙之吟唱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -299,386 +332,524 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1"/>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -101,16 +101,10 @@
     <t xml:space="preserve">备注6</t>
   </si>
   <si>
-    <t xml:space="preserve">水电费</t>
-  </si>
-  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">啊蒙之吟唱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -339,9 +333,6 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -356,9 +347,6 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -377,9 +365,6 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -400,9 +385,6 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -421,9 +403,6 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -442,9 +421,6 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -463,9 +439,6 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -483,373 +456,314 @@
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/sample/locationtest/output/custom/location_new.xlsx
+++ b/sample/locationtest/output/custom/location_new.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="217">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">extend_key</t>
+  </si>
+  <si>
     <t xml:space="preserve">zh</t>
   </si>
   <si>
@@ -104,169 +107,562 @@
     <t xml:space="preserve">8</t>
   </si>
   <si>
+    <t xml:space="preserve">草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">听者植入思想钢印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppledescList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_发型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裙子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_裙子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_水蜜桃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_外套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_中秋节发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_中秋节礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_中秋节鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig_AppledescList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_草泥马</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_发型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_梨descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_梨descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_苹果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_苹果descList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_苹果descList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10000_AppledescList2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10001_苹果desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10001_苹果locationText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10001_外套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10001_香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10002_初始上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10002_上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10002_水蜜桃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10003_初始下装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10003_苹果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10003_裙子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10004_初始袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10004_袜子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10004_香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10005_初始鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10005_苹果desc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10005_鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10006_初始发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10006_发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10007_中秋节发饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10008_中秋节鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10009_礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10009_中秋节礼包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010</t>
+  </si>
+  <si>
     <t xml:space="preserve">啊蒙之吟唱</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">草泥马</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始发饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始袜子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始下装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初始鞋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">给我力量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨descList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梨descList2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">礼包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果desc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果descList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果descList2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">苹果locationText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全力博</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全力上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裙子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">听者流泪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">听者植入思想钢印</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">袜子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外套</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鞋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppledescList2</t>
+    <t xml:space="preserve">TestConfig3_10010_啊蒙之吟唱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010_给我力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010_全力博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010_全力上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010_听者流泪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestConfig3_10010_听者植入思想钢印</t>
   </si>
 </sst>
 </file>
@@ -326,444 +722,1270 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1"/>
+      <c r="E1"/>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1"/>
       <c r="H1"/>
+      <c r="I1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2"/>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="B3"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="B4"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
       <c r="G4"/>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="B5"/>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="F5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="B6"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="F6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
         <v>27</v>
       </c>
+      <c r="B8"/>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
         <v>30</v>
       </c>
+      <c r="B9"/>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
         <v>32</v>
       </c>
+      <c r="B10"/>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
         <v>34</v>
       </c>
+      <c r="B11"/>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
         <v>36</v>
       </c>
+      <c r="B12"/>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
         <v>38</v>
       </c>
+      <c r="B13"/>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
         <v>40</v>
       </c>
+      <c r="B14"/>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
         <v>42</v>
       </c>
+      <c r="B15"/>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
         <v>44</v>
       </c>
+      <c r="B16"/>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
         <v>46</v>
       </c>
+      <c r="B17"/>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="B18"/>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
         <v>50</v>
       </c>
+      <c r="B19"/>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
         <v>52</v>
       </c>
+      <c r="B20"/>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
         <v>54</v>
       </c>
+      <c r="B21"/>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
         <v>56</v>
       </c>
+      <c r="B22"/>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
         <v>58</v>
       </c>
+      <c r="B23"/>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
         <v>60</v>
       </c>
+      <c r="B24"/>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
         <v>62</v>
       </c>
+      <c r="B25"/>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
         <v>64</v>
       </c>
+      <c r="B26"/>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
         <v>66</v>
       </c>
+      <c r="B27"/>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
